--- a/data/T=1 파도만.xlsx
+++ b/data/T=1 파도만.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goood\Documents\wave\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B8D890-DAC3-43EE-B32D-7F9023575538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05AA3D9-D305-4BE3-8704-55106B94FE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="T=1 파도만" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -173,7 +173,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'T=1 파도만'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -206,10 +206,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$121</c:f>
+              <c:f>'T=1 파도만'!$A$2:$A$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="120"/>
+                <c:ptCount val="121"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -569,375 +569,381 @@
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$121</c:f>
+              <c:f>'T=1 파도만'!$C$2:$C$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="120"/>
+                <c:ptCount val="121"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.9407614370784301E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.5034713402760139E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.5577992267095639E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.1785623571247138E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.0145203623740581E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.9864250839612785E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.1708012304913497E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5.2091270849208372E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5.3227217565546242E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5.6310501509891912E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6.0526204385742112E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>6.5108796884260439E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>6.3316682188919934E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>6.5038241187593493E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>6.1679790026246718E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>6.5849631699263403E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>6.428329523325714E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>5.9937064318573083E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>6.1009510907910708E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>6.5930770750430384E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>6.0293370586741182E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>6.1979651737081247E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>5.9376146530070839E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>6.7835774560438003E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>6.6883272655434201E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>6.3877599977422178E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>5.8571811588067617E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>6.7179606581435389E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>6.2452374904749808E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>5.9637202607738547E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>6.1450484012079143E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>5.8437755764400419E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>5.9118618237236471E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>5.6165862331724672E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>4.9505404566364687E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>4.9187903931363422E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>5.4906443146219633E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>6.4706629413258832E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>6.1090649959077703E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>6.5860215053763438E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>5.7361781390229447E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>6.1259983631078367E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>5.5174554793554029E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>5.5139276945220562E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>5.5333305111054658E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>6.1171789010244677E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>6.1633928823413203E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>5.9788897355572489E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>6.1566900911579597E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>5.6814974741060592E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>6.2004346230914692E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>6.330962661925324E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>6.383526655942201E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>5.8060282787232242E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7.0909916042659404E-6</c:v>
+                  <c:v>5.8518894815567407E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>5.8846978805068721E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>5.7809810064064569E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>5.972186944373889E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>5.8533005954900803E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.0909916042659404E-6</c:v>
+                  <c:v>5.6067084356390927E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>5.4585414726385013E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>6.2759292185251031E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>6.4307989727090564E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>5.5192193717720772E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>5.8000310445065331E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>5.689258600739424E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>5.6349307143058733E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>6.1616289899246467E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>6.102009426241075E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>5.5636694606722548E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>6.0148731408573929E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>6.1076538819744307E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>5.9968814382073209E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>5.7513476138063388E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>6.1951429458414482E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>5.774278215223097E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>5.4571303587051617E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>5.5315666186887928E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>5.7809810064064569E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>5.8134366268732543E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>5.8981034628735933E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>6.3810572065588572E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>5.24581604718765E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>6.0473287613241902E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>5.9422007732904347E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>5.6977252843394582E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>5.3206050856546158E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>5.5555555555555552E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>5.6980780628227923E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>5.4020969153049422E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>5.5604944543222422E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>6.491476871842633E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>6.2727542121750912E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>5.7009002906894701E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>5.3819885417548612E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>6.4925352072926365E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>6.0011147800073383E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>6.2939209211751751E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>5.8705867411734822E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>5.8818756526401943E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>5.2288826799875822E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0</c:v>
+                  <c:v>5.6578613157226322E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0</c:v>
+                  <c:v>5.8631783930234528E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0</c:v>
+                  <c:v>5.779569892473118E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0</c:v>
+                  <c:v>5.2468743826376542E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0</c:v>
+                  <c:v>5.215124319137527E-2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0</c:v>
+                  <c:v>5.9108034882736429E-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0</c:v>
+                  <c:v>5.6691502271893443E-2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0</c:v>
+                  <c:v>5.8222560889566233E-2</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0</c:v>
+                  <c:v>5.8561228233567568E-2</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
+                  <c:v>5.7559337340896903E-2</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0</c:v>
+                  <c:v>6.6999689554934669E-2</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0</c:v>
+                  <c:v>6.102009426241075E-2</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0</c:v>
+                  <c:v>5.8571811588067617E-2</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0</c:v>
+                  <c:v>5.4673609347218703E-2</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0</c:v>
+                  <c:v>5.8843451020235367E-2</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0</c:v>
+                  <c:v>5.6980780628227923E-2</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0</c:v>
+                  <c:v>5.2867383512544802E-2</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0</c:v>
+                  <c:v>5.3093161741879037E-2</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0</c:v>
+                  <c:v>5.3294245477379841E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.9075014816696301E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -945,7 +951,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DFBB-4766-BFAD-5DF490372EAC}"/>
+              <c16:uniqueId val="{00000000-5AB1-459A-B6B5-8490215B2971}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -957,11 +963,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1123834704"/>
-        <c:axId val="1350523376"/>
+        <c:axId val="171483615"/>
+        <c:axId val="171482655"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1123834704"/>
+        <c:axId val="171483615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,12 +1024,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1350523376"/>
+        <c:crossAx val="171482655"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1350523376"/>
+        <c:axId val="171482655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,7 +1086,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1123834704"/>
+        <c:crossAx val="171483615"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1728,26 +1734,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>64770</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
+        <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11991C63-7998-E8DB-1D44-8645F0B05F50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74091EE3-924E-42BF-B2CD-BBB5F75770D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2049,10 +2057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2076,13 +2084,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>8336</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.9407614370784301E-2</v>
       </c>
       <c r="D2">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -2090,13 +2098,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>18435</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>6.5034713402760139E-2</v>
       </c>
       <c r="D3">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -2104,13 +2112,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>18589</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>6.5577992267095639E-2</v>
       </c>
       <c r="D4">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -2118,13 +2126,13 @@
         <v>1.5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>17514</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>6.1785623571247138E-2</v>
       </c>
       <c r="D5">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -2132,13 +2140,13 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>17049</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>6.0145203623740581E-2</v>
       </c>
       <c r="D6">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -2146,13 +2154,13 @@
         <v>2.5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>19804</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>6.9864250839612785E-2</v>
       </c>
       <c r="D7">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -2160,13 +2168,13 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>17492</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>6.1708012304913497E-2</v>
       </c>
       <c r="D8">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -2174,13 +2182,13 @@
         <v>3.5</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>14766</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>5.2091270849208372E-2</v>
       </c>
       <c r="D9">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -2188,13 +2196,13 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>15088</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>5.3227217565546242E-2</v>
       </c>
       <c r="D10">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -2202,13 +2210,13 @@
         <v>4.5</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>15962</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>5.6310501509891912E-2</v>
       </c>
       <c r="D11">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -2216,13 +2224,13 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>17157</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>6.0526204385742112E-2</v>
       </c>
       <c r="D12">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -2230,13 +2238,13 @@
         <v>5.5</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>18456</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>6.5108796884260439E-2</v>
       </c>
       <c r="D13">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -2244,13 +2252,13 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>17948</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>6.3316682188919934E-2</v>
       </c>
       <c r="D14">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -2258,13 +2266,13 @@
         <v>6.5</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>18436</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>6.5038241187593493E-2</v>
       </c>
       <c r="D15">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -2272,13 +2280,13 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>17484</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>6.1679790026246718E-2</v>
       </c>
       <c r="D16">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -2286,13 +2294,13 @@
         <v>7.5</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>18666</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>6.5849631699263403E-2</v>
       </c>
       <c r="D17">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -2300,13 +2308,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>18222</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>6.428329523325714E-2</v>
       </c>
       <c r="D18">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -2314,13 +2322,13 @@
         <v>8.5</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>16990</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>5.9937064318573083E-2</v>
       </c>
       <c r="D19">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -2328,13 +2336,13 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>17294</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>6.1009510907910708E-2</v>
       </c>
       <c r="D20">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -2342,13 +2350,13 @@
         <v>9.5</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>18689</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>6.5930770750430384E-2</v>
       </c>
       <c r="D21">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -2356,13 +2364,13 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>17091</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>6.0293370586741182E-2</v>
       </c>
       <c r="D22">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -2370,13 +2378,13 @@
         <v>10.5</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>17569</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>6.1979651737081247E-2</v>
       </c>
       <c r="D23">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -2384,13 +2392,13 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>16831</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>5.9376146530070839E-2</v>
       </c>
       <c r="D24">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -2398,13 +2406,13 @@
         <v>11.5</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>19229</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>6.7835774560438003E-2</v>
       </c>
       <c r="D25">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -2412,13 +2420,13 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>18959</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>6.6883272655434201E-2</v>
       </c>
       <c r="D26">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -2426,13 +2434,13 @@
         <v>12.5</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>18107</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>6.3877599977422178E-2</v>
       </c>
       <c r="D27">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -2440,13 +2448,13 @@
         <v>13</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>16603</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>5.8571811588067617E-2</v>
       </c>
       <c r="D28">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -2454,13 +2462,13 @@
         <v>13.5</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>19043</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>6.7179606581435389E-2</v>
       </c>
       <c r="D29">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -2468,13 +2476,13 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>17703</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>6.2452374904749808E-2</v>
       </c>
       <c r="D30">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -2482,13 +2490,13 @@
         <v>14.5</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>16905</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>5.9637202607738547E-2</v>
       </c>
       <c r="D31">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -2496,13 +2504,13 @@
         <v>15</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>17419</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>6.1450484012079143E-2</v>
       </c>
       <c r="D32">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -2510,13 +2518,13 @@
         <v>15.5</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>16565</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>5.8437755764400419E-2</v>
       </c>
       <c r="D33">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -2524,13 +2532,13 @@
         <v>16</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>16758</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>5.9118618237236471E-2</v>
       </c>
       <c r="D34">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -2538,13 +2546,13 @@
         <v>16.5</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>15921</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>5.6165862331724672E-2</v>
       </c>
       <c r="D35">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -2552,13 +2560,13 @@
         <v>17</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>14033</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>4.9505404566364687E-2</v>
       </c>
       <c r="D36">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -2566,13 +2574,13 @@
         <v>17.5</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>13943</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>4.9187903931363422E-2</v>
       </c>
       <c r="D37">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -2580,13 +2588,13 @@
         <v>18</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>15564</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>5.4906443146219633E-2</v>
       </c>
       <c r="D38">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -2594,13 +2602,13 @@
         <v>18.5</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>18342</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>6.4706629413258832E-2</v>
       </c>
       <c r="D39">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -2608,13 +2616,13 @@
         <v>19</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>17317</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>6.1090649959077703E-2</v>
       </c>
       <c r="D40">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -2622,13 +2630,13 @@
         <v>19.5</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>18669</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>6.5860215053763438E-2</v>
       </c>
       <c r="D41">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -2636,13 +2644,13 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>16260</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>5.7361781390229447E-2</v>
       </c>
       <c r="D42">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -2650,13 +2658,13 @@
         <v>20.5</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>17365</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>6.1259983631078367E-2</v>
       </c>
       <c r="D43">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -2664,13 +2672,13 @@
         <v>21</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>15640</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>5.5174554793554029E-2</v>
       </c>
       <c r="D44">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -2678,13 +2686,13 @@
         <v>21.5</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>15630</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>5.5139276945220562E-2</v>
       </c>
       <c r="D45">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -2692,13 +2700,13 @@
         <v>22</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>15685</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>5.5333305111054658E-2</v>
       </c>
       <c r="D46">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -2706,13 +2714,13 @@
         <v>22.5</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>17340</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>6.1171789010244677E-2</v>
       </c>
       <c r="D47">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -2720,13 +2728,13 @@
         <v>23</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>17471</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>6.1633928823413203E-2</v>
       </c>
       <c r="D48">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -2734,13 +2742,13 @@
         <v>23.5</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>16948</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>5.9788897355572489E-2</v>
       </c>
       <c r="D49">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -2748,13 +2756,13 @@
         <v>24</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>17452</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>6.1566900911579597E-2</v>
       </c>
       <c r="D50">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -2762,13 +2770,13 @@
         <v>24.5</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>16105</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>5.6814974741060592E-2</v>
       </c>
       <c r="D51">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -2776,13 +2784,13 @@
         <v>25</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>17576</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>6.2004346230914692E-2</v>
       </c>
       <c r="D52">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -2790,13 +2798,13 @@
         <v>25.5</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>17946</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>6.330962661925324E-2</v>
       </c>
       <c r="D53">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -2804,13 +2812,13 @@
         <v>26</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>18095</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>6.383526655942201E-2</v>
       </c>
       <c r="D54">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -2818,13 +2826,13 @@
         <v>26.5</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>16458</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>5.8060282787232242E-2</v>
       </c>
       <c r="D55">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -2832,13 +2840,13 @@
         <v>27</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>16588</v>
       </c>
       <c r="C56">
-        <v>7.0909916042659404E-6</v>
+        <v>5.8518894815567407E-2</v>
       </c>
       <c r="D56">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -2846,13 +2854,13 @@
         <v>27.5</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>16681</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>5.8846978805068721E-2</v>
       </c>
       <c r="D57">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -2860,13 +2868,13 @@
         <v>28</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>16387</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>5.7809810064064569E-2</v>
       </c>
       <c r="D58">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -2874,13 +2882,13 @@
         <v>28.5</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>16929</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>5.972186944373889E-2</v>
       </c>
       <c r="D59">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -2888,13 +2896,13 @@
         <v>29</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>16592</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>5.8533005954900803E-2</v>
       </c>
       <c r="D60">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -2902,13 +2910,13 @@
         <v>29.5</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>15893</v>
       </c>
       <c r="C61">
-        <v>7.0909916042659404E-6</v>
+        <v>5.6067084356390927E-2</v>
       </c>
       <c r="D61">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -2916,13 +2924,13 @@
         <v>30</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>15473</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>5.4585414726385013E-2</v>
       </c>
       <c r="D62">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -2930,13 +2938,13 @@
         <v>30.5</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>17790</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>6.2759292185251031E-2</v>
       </c>
       <c r="D63">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -2944,13 +2952,13 @@
         <v>31</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>18229</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>6.4307989727090564E-2</v>
       </c>
       <c r="D64">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -2958,13 +2966,13 @@
         <v>31.5</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>15645</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>5.5192193717720772E-2</v>
       </c>
       <c r="D65">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -2972,13 +2980,13 @@
         <v>32</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>16441</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>5.8000310445065331E-2</v>
       </c>
       <c r="D66">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -2986,13 +2994,13 @@
         <v>32.5</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>16127</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>5.689258600739424E-2</v>
       </c>
       <c r="D67">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -3000,13 +3008,13 @@
         <v>33</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>15973</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>5.6349307143058733E-2</v>
       </c>
       <c r="D68">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -3014,13 +3022,13 @@
         <v>33.5</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>17466</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>6.1616289899246467E-2</v>
       </c>
       <c r="D69">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
@@ -3028,13 +3036,13 @@
         <v>34</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>17297</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>6.102009426241075E-2</v>
       </c>
       <c r="D70">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
@@ -3042,13 +3050,13 @@
         <v>34.5</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>15771</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>5.5636694606722548E-2</v>
       </c>
       <c r="D71">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
@@ -3056,13 +3064,13 @@
         <v>35</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>17050</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>6.0148731408573929E-2</v>
       </c>
       <c r="D72">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
@@ -3070,13 +3078,13 @@
         <v>35.5</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>17313</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>6.1076538819744307E-2</v>
       </c>
       <c r="D73">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
@@ -3084,13 +3092,13 @@
         <v>36</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>16999</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>5.9968814382073209E-2</v>
       </c>
       <c r="D74">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
@@ -3098,13 +3106,13 @@
         <v>36.5</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>16303</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>5.7513476138063388E-2</v>
       </c>
       <c r="D75">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
@@ -3112,13 +3120,13 @@
         <v>37</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>17561</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>6.1951429458414482E-2</v>
       </c>
       <c r="D76">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
@@ -3126,13 +3134,13 @@
         <v>37.5</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>16368</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>5.774278215223097E-2</v>
       </c>
       <c r="D77">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
@@ -3140,13 +3148,13 @@
         <v>38</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>15469</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>5.4571303587051617E-2</v>
       </c>
       <c r="D78">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
@@ -3154,13 +3162,13 @@
         <v>38.5</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>15680</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>5.5315666186887928E-2</v>
       </c>
       <c r="D79">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
@@ -3168,13 +3176,13 @@
         <v>39</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>16387</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>5.7809810064064569E-2</v>
       </c>
       <c r="D80">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
@@ -3182,13 +3190,13 @@
         <v>39.5</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>16479</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>5.8134366268732543E-2</v>
       </c>
       <c r="D81">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
@@ -3196,13 +3204,13 @@
         <v>40</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>16719</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>5.8981034628735933E-2</v>
       </c>
       <c r="D82">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
@@ -3210,13 +3218,13 @@
         <v>40.5</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>18088</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>6.3810572065588572E-2</v>
       </c>
       <c r="D83">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
@@ -3224,13 +3232,13 @@
         <v>41</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>14870</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>5.24581604718765E-2</v>
       </c>
       <c r="D84">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
@@ -3238,13 +3246,13 @@
         <v>41.5</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>17142</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>6.0473287613241902E-2</v>
       </c>
       <c r="D85">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
@@ -3252,13 +3260,13 @@
         <v>42</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>16844</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>5.9422007732904347E-2</v>
       </c>
       <c r="D86">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
@@ -3266,13 +3274,13 @@
         <v>42.5</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>16151</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>5.6977252843394582E-2</v>
       </c>
       <c r="D87">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
@@ -3280,13 +3288,13 @@
         <v>43</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>15082</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>5.3206050856546158E-2</v>
       </c>
       <c r="D88">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
@@ -3294,13 +3302,13 @@
         <v>43.5</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>15748</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="D89">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
@@ -3308,13 +3316,13 @@
         <v>44</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>16152</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>5.6980780628227923E-2</v>
       </c>
       <c r="D90">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
@@ -3322,13 +3330,13 @@
         <v>44.5</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>15313</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>5.4020969153049422E-2</v>
       </c>
       <c r="D91">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
@@ -3336,13 +3344,13 @@
         <v>45</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>15762</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>5.5604944543222422E-2</v>
       </c>
       <c r="D92">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
@@ -3350,13 +3358,13 @@
         <v>45.5</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>18401</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>6.491476871842633E-2</v>
       </c>
       <c r="D93">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
@@ -3364,13 +3372,13 @@
         <v>46</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>17781</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>6.2727542121750912E-2</v>
       </c>
       <c r="D94">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
@@ -3378,13 +3386,13 @@
         <v>46.5</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>16160</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>5.7009002906894701E-2</v>
       </c>
       <c r="D95">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
@@ -3392,13 +3400,13 @@
         <v>47</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>15256</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>5.3819885417548612E-2</v>
       </c>
       <c r="D96">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
@@ -3406,13 +3414,13 @@
         <v>47.5</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>18404</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>6.4925352072926365E-2</v>
       </c>
       <c r="D97">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
@@ -3420,13 +3428,13 @@
         <v>48</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>17011</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>6.0011147800073383E-2</v>
       </c>
       <c r="D98">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
@@ -3434,13 +3442,13 @@
         <v>48.5</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>17841</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>6.2939209211751751E-2</v>
       </c>
       <c r="D99">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
@@ -3448,13 +3456,13 @@
         <v>49</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>16641</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>5.8705867411734822E-2</v>
       </c>
       <c r="D100">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
@@ -3462,13 +3470,13 @@
         <v>49.5</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>16673</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>5.8818756526401943E-2</v>
       </c>
       <c r="D101">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
@@ -3476,13 +3484,13 @@
         <v>50</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>14822</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>5.2288826799875822E-2</v>
       </c>
       <c r="D102">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
@@ -3490,13 +3498,13 @@
         <v>50.5</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>16038</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>5.6578613157226322E-2</v>
       </c>
       <c r="D103">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
@@ -3504,13 +3512,13 @@
         <v>51</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>16620</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>5.8631783930234528E-2</v>
       </c>
       <c r="D104">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
@@ -3518,13 +3526,13 @@
         <v>51.5</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>16383</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>5.779569892473118E-2</v>
       </c>
       <c r="D105">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
@@ -3532,13 +3540,13 @@
         <v>52</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>14873</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>5.2468743826376542E-2</v>
       </c>
       <c r="D106">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
@@ -3546,13 +3554,13 @@
         <v>52.5</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>14783</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>5.215124319137527E-2</v>
       </c>
       <c r="D107">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
@@ -3560,13 +3568,13 @@
         <v>53</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>16755</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>5.9108034882736429E-2</v>
       </c>
       <c r="D108">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
@@ -3574,13 +3582,13 @@
         <v>53.5</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>16070</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>5.6691502271893443E-2</v>
       </c>
       <c r="D109">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
@@ -3588,13 +3596,13 @@
         <v>54</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>16504</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>5.8222560889566233E-2</v>
       </c>
       <c r="D110">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
@@ -3602,13 +3610,13 @@
         <v>54.5</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>16600</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>5.8561228233567568E-2</v>
       </c>
       <c r="D111">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
@@ -3616,13 +3624,13 @@
         <v>55</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>16316</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>5.7559337340896903E-2</v>
       </c>
       <c r="D112">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
@@ -3630,13 +3638,13 @@
         <v>55.5</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>18992</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>6.6999689554934669E-2</v>
       </c>
       <c r="D113">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
@@ -3644,13 +3652,13 @@
         <v>56</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>17297</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>6.102009426241075E-2</v>
       </c>
       <c r="D114">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
@@ -3658,13 +3666,13 @@
         <v>56.5</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>16603</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>5.8571811588067617E-2</v>
       </c>
       <c r="D115">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
@@ -3672,13 +3680,13 @@
         <v>57</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>15498</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>5.4673609347218703E-2</v>
       </c>
       <c r="D116">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
@@ -3686,13 +3694,13 @@
         <v>57.5</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>16680</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>5.8843451020235367E-2</v>
       </c>
       <c r="D117">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
@@ -3700,13 +3708,13 @@
         <v>58</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>16152</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>5.6980780628227923E-2</v>
       </c>
       <c r="D118">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
@@ -3714,13 +3722,13 @@
         <v>58.5</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>14986</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>5.2867383512544802E-2</v>
       </c>
       <c r="D119">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
@@ -3728,13 +3736,13 @@
         <v>59</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>15050</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>5.3093161741879037E-2</v>
       </c>
       <c r="D120">
-        <v>141024</v>
+        <v>283464</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
@@ -3742,13 +3750,27 @@
         <v>59.5</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>15107</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>5.3294245477379841E-2</v>
       </c>
       <c r="D121">
-        <v>141024</v>
+        <v>283464</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>60</v>
+      </c>
+      <c r="B122">
+        <v>13911</v>
+      </c>
+      <c r="C122">
+        <v>4.9075014816696301E-2</v>
+      </c>
+      <c r="D122">
+        <v>283464</v>
       </c>
     </row>
   </sheetData>
